--- a/Code/Results/Cases/Case_5_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_216/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.07128983966394</v>
+        <v>16.14118879991426</v>
       </c>
       <c r="C2">
-        <v>7.701859124482518</v>
+        <v>4.714971814194675</v>
       </c>
       <c r="D2">
-        <v>5.234378961725431</v>
+        <v>7.60243751228304</v>
       </c>
       <c r="E2">
-        <v>6.300558212141576</v>
+        <v>9.938551248749587</v>
       </c>
       <c r="F2">
-        <v>30.60187671934472</v>
+        <v>37.75385985877457</v>
       </c>
       <c r="I2">
-        <v>22.38113055601177</v>
+        <v>31.01830222044006</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.18353088803871</v>
+        <v>13.9804170890811</v>
       </c>
       <c r="L2">
-        <v>7.273124113448497</v>
+        <v>10.35233306271476</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.90870819196135</v>
+        <v>22.18326019142626</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.1193011958791</v>
+        <v>15.94619127431521</v>
       </c>
       <c r="C3">
-        <v>7.187625231850636</v>
+        <v>4.457157147758701</v>
       </c>
       <c r="D3">
-        <v>5.285413934866876</v>
+        <v>7.609906557120055</v>
       </c>
       <c r="E3">
-        <v>6.21192310449317</v>
+        <v>9.947211762593218</v>
       </c>
       <c r="F3">
-        <v>29.78583490935501</v>
+        <v>37.67890564883053</v>
       </c>
       <c r="I3">
-        <v>22.14196654612707</v>
+        <v>31.04199030422711</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.44039735976237</v>
+        <v>13.84376505895688</v>
       </c>
       <c r="L3">
-        <v>7.064059136474047</v>
+        <v>10.34271338168336</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.08333305128729</v>
+        <v>22.23616157705348</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.51357827200424</v>
+        <v>15.82962789282473</v>
       </c>
       <c r="C4">
-        <v>6.855781820585018</v>
+        <v>4.290122461420101</v>
       </c>
       <c r="D4">
-        <v>5.316783729013952</v>
+        <v>7.61460490854741</v>
       </c>
       <c r="E4">
-        <v>6.1602247296155</v>
+        <v>9.954011870861381</v>
       </c>
       <c r="F4">
-        <v>29.29892609610671</v>
+        <v>37.64140246172978</v>
       </c>
       <c r="I4">
-        <v>22.00981178275013</v>
+        <v>31.06210622571427</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.96967781969799</v>
+        <v>13.76283001884183</v>
       </c>
       <c r="L4">
-        <v>6.937274929805547</v>
+        <v>10.33875354970141</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.19482655760528</v>
+        <v>22.27054980033538</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26161933380281</v>
+        <v>15.78298076116336</v>
       </c>
       <c r="C5">
-        <v>6.716468097152137</v>
+        <v>4.219881956196033</v>
       </c>
       <c r="D5">
-        <v>5.329589728038077</v>
+        <v>7.61654798267427</v>
       </c>
       <c r="E5">
-        <v>6.139846085827989</v>
+        <v>9.957156025520746</v>
       </c>
       <c r="F5">
-        <v>29.10419173333726</v>
+        <v>37.62826945504848</v>
       </c>
       <c r="I5">
-        <v>21.95955367346618</v>
+        <v>31.07170291591019</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.77441819585059</v>
+        <v>13.73063072870059</v>
       </c>
       <c r="L5">
-        <v>6.886063412973724</v>
+        <v>10.33763088198513</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.24132120014499</v>
+        <v>22.28504317742432</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.2194795608755</v>
+        <v>15.77528822334049</v>
       </c>
       <c r="C6">
-        <v>6.69308750368103</v>
+        <v>4.208088178793432</v>
       </c>
       <c r="D6">
-        <v>5.331717907964848</v>
+        <v>7.616872353647246</v>
       </c>
       <c r="E6">
-        <v>6.136503924498617</v>
+        <v>9.957700647828261</v>
       </c>
       <c r="F6">
-        <v>29.07208251223217</v>
+        <v>37.6262187603636</v>
       </c>
       <c r="I6">
-        <v>21.95142257010376</v>
+        <v>31.0733808954544</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.74179433539489</v>
+        <v>13.72533232458965</v>
       </c>
       <c r="L6">
-        <v>6.877588890349876</v>
+        <v>10.33747415637652</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.24910525455299</v>
+        <v>22.28747879053438</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.51020068867951</v>
+        <v>15.82899526354942</v>
       </c>
       <c r="C7">
-        <v>6.853919569906362</v>
+        <v>4.289183933733787</v>
       </c>
       <c r="D7">
-        <v>5.316956326062194</v>
+        <v>7.61463099803536</v>
       </c>
       <c r="E7">
-        <v>6.159947102586278</v>
+        <v>9.954052763247098</v>
       </c>
       <c r="F7">
-        <v>29.29628475180754</v>
+        <v>37.64121663218366</v>
       </c>
       <c r="I7">
-        <v>22.00911955777393</v>
+        <v>31.06222998696264</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.96705811305257</v>
+        <v>13.76239255424169</v>
       </c>
       <c r="L7">
-        <v>6.936582358894026</v>
+        <v>10.3387364192484</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.19544932539495</v>
+        <v>22.2707433194002</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.74755252897568</v>
+        <v>16.07333145965105</v>
       </c>
       <c r="C8">
-        <v>7.527869815015865</v>
+        <v>4.627903070063746</v>
       </c>
       <c r="D8">
-        <v>5.251977451528303</v>
+        <v>7.604989653914703</v>
       </c>
       <c r="E8">
-        <v>6.269434114398027</v>
+        <v>9.941229876895665</v>
       </c>
       <c r="F8">
-        <v>30.31764659003005</v>
+        <v>37.72625270988142</v>
       </c>
       <c r="I8">
-        <v>22.29555927469414</v>
+        <v>31.02531265243648</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.93039544479858</v>
+        <v>13.93270490890878</v>
       </c>
       <c r="L8">
-        <v>7.200742852176083</v>
+        <v>10.34861313697552</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.96802254366636</v>
+        <v>22.20110516954001</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99923652550502</v>
+        <v>16.57500271281531</v>
       </c>
       <c r="C9">
-        <v>8.723635568392963</v>
+        <v>5.222029863805265</v>
       </c>
       <c r="D9">
-        <v>5.124140647922702</v>
+        <v>7.586964278749349</v>
       </c>
       <c r="E9">
-        <v>6.505548537419275</v>
+        <v>9.92783364937438</v>
       </c>
       <c r="F9">
-        <v>32.42737922878089</v>
+        <v>37.96018208884473</v>
       </c>
       <c r="I9">
-        <v>22.978082144527</v>
+        <v>30.99718470839059</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.00440193284817</v>
+        <v>14.28861576209488</v>
       </c>
       <c r="L9">
-        <v>7.729036156414069</v>
+        <v>10.38335069873541</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.55672639765514</v>
+        <v>22.07965062623</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.65309476671733</v>
+        <v>16.95377678489797</v>
       </c>
       <c r="C10">
-        <v>9.528491691346918</v>
+        <v>5.615050713781351</v>
       </c>
       <c r="D10">
-        <v>5.028926113644817</v>
+        <v>7.57424382141223</v>
       </c>
       <c r="E10">
-        <v>6.691799179318675</v>
+        <v>9.925132632703599</v>
       </c>
       <c r="F10">
-        <v>34.03625649230705</v>
+        <v>38.17231739666779</v>
       </c>
       <c r="I10">
-        <v>23.55884199014281</v>
+        <v>31.00356771817148</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.43187999718424</v>
+        <v>14.56119984134638</v>
       </c>
       <c r="L10">
-        <v>8.120749867441168</v>
+        <v>10.41812218228075</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.27702274725292</v>
+        <v>21.99959563387434</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.39401847569298</v>
+        <v>17.12754711216996</v>
       </c>
       <c r="C11">
-        <v>9.879418016655032</v>
+        <v>5.784314008354198</v>
       </c>
       <c r="D11">
-        <v>4.985072422871554</v>
+        <v>7.568567353478108</v>
       </c>
       <c r="E11">
-        <v>6.779251478753497</v>
+        <v>9.925448254422937</v>
       </c>
       <c r="F11">
-        <v>34.78000773053394</v>
+        <v>38.27738100427604</v>
       </c>
       <c r="I11">
-        <v>23.84146630914574</v>
+        <v>31.012348960417</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.05180526418619</v>
+        <v>14.68711586200622</v>
       </c>
       <c r="L11">
-        <v>8.29928364825609</v>
+        <v>10.43591742168709</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.15504097863075</v>
+        <v>21.96516308156763</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.66976994161771</v>
+        <v>17.19349710297033</v>
       </c>
       <c r="C12">
-        <v>10.01018926934229</v>
+        <v>5.84703557384842</v>
       </c>
       <c r="D12">
-        <v>4.96836471597562</v>
+        <v>7.566433428164983</v>
       </c>
       <c r="E12">
-        <v>6.812755832773982</v>
+        <v>9.92578913929867</v>
       </c>
       <c r="F12">
-        <v>35.0633062112008</v>
+        <v>38.31837823184227</v>
       </c>
       <c r="I12">
-        <v>23.95123941578641</v>
+        <v>31.01651875540763</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.28243385971657</v>
+        <v>14.73503021523607</v>
       </c>
       <c r="L12">
-        <v>8.366911240417904</v>
+        <v>10.44293717139402</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.1096458262772</v>
+        <v>21.95240939979721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.6105945267894</v>
+        <v>17.17928805913396</v>
       </c>
       <c r="C13">
-        <v>9.982118305567795</v>
+        <v>5.833588567973509</v>
       </c>
       <c r="D13">
-        <v>4.971967924726075</v>
+        <v>7.566892315299611</v>
       </c>
       <c r="E13">
-        <v>6.805522856646537</v>
+        <v>9.925705890583968</v>
       </c>
       <c r="F13">
-        <v>35.00221961872498</v>
+        <v>38.30949517181374</v>
       </c>
       <c r="I13">
-        <v>23.92747390926959</v>
+        <v>31.01558317066632</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.23294542927109</v>
+        <v>14.72470133460022</v>
       </c>
       <c r="L13">
-        <v>8.352345871463012</v>
+        <v>10.44141289712686</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.11938632438108</v>
+        <v>21.95514345359141</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.41680068159126</v>
+        <v>17.13297027344441</v>
       </c>
       <c r="C14">
-        <v>9.890218648281429</v>
+        <v>5.789501724624603</v>
       </c>
       <c r="D14">
-        <v>4.983700042931671</v>
+        <v>7.568391482094808</v>
       </c>
       <c r="E14">
-        <v>6.782000141526363</v>
+        <v>9.925471867104793</v>
       </c>
       <c r="F14">
-        <v>34.80328185148594</v>
+        <v>38.28072969931275</v>
       </c>
       <c r="I14">
-        <v>23.85044172426898</v>
+        <v>31.01267509192085</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.07086120346046</v>
+        <v>14.69105338647529</v>
       </c>
       <c r="L14">
-        <v>8.304847129151046</v>
+        <v>10.43648932736199</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.15129006583999</v>
+        <v>21.96410811440585</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.29747190444433</v>
+        <v>17.1046165574535</v>
       </c>
       <c r="C15">
-        <v>9.833653956985023</v>
+        <v>5.762318103348442</v>
       </c>
       <c r="D15">
-        <v>4.990872375601955</v>
+        <v>7.569311794389817</v>
       </c>
       <c r="E15">
-        <v>6.76764224718472</v>
+        <v>9.925357326765633</v>
       </c>
       <c r="F15">
-        <v>34.68164144169959</v>
+        <v>38.26326724006599</v>
       </c>
       <c r="I15">
-        <v>23.80361834912213</v>
+        <v>31.01100376411549</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.97104631261638</v>
+        <v>14.67047207875387</v>
       </c>
       <c r="L15">
-        <v>8.275754773481198</v>
+        <v>10.43351000086101</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.17093711509719</v>
+        <v>21.96963635982558</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.60399321310041</v>
+        <v>16.94244448914634</v>
       </c>
       <c r="C16">
-        <v>9.505257641079861</v>
+        <v>5.603796818454475</v>
       </c>
       <c r="D16">
-        <v>5.031779222663761</v>
+        <v>7.574616990365722</v>
       </c>
       <c r="E16">
-        <v>6.686138449767276</v>
+        <v>9.925143023620702</v>
       </c>
       <c r="F16">
-        <v>33.98788435890565</v>
+        <v>38.16562192713826</v>
       </c>
       <c r="I16">
-        <v>23.54075109571316</v>
+        <v>31.00311207041865</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.39078321250004</v>
+        <v>14.55300582779628</v>
       </c>
       <c r="L16">
-        <v>8.109086526178563</v>
+        <v>10.4169987401903</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.28510364823484</v>
+        <v>22.0018858014637</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.16986644493791</v>
+        <v>16.84328663980047</v>
       </c>
       <c r="C17">
-        <v>9.299949832465551</v>
+        <v>5.504105443785968</v>
       </c>
       <c r="D17">
-        <v>5.056719844074945</v>
+        <v>7.577899616179802</v>
       </c>
       <c r="E17">
-        <v>6.636833449109508</v>
+        <v>9.925406621661715</v>
       </c>
       <c r="F17">
-        <v>33.56528042598327</v>
+        <v>38.10789951980733</v>
       </c>
       <c r="I17">
-        <v>23.38428079976907</v>
+        <v>30.99977585215267</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.02734578475556</v>
+        <v>14.48140437743189</v>
       </c>
       <c r="L17">
-        <v>8.006905677344523</v>
+        <v>10.40737386360274</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.35651434024505</v>
+        <v>22.02217798145908</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.9169385327828</v>
+        <v>16.78639523560432</v>
       </c>
       <c r="C18">
-        <v>9.180426300391447</v>
+        <v>5.445869337558499</v>
       </c>
       <c r="D18">
-        <v>5.071015735525197</v>
+        <v>7.579798074119591</v>
       </c>
       <c r="E18">
-        <v>6.608731258093145</v>
+        <v>9.925703643892476</v>
       </c>
       <c r="F18">
-        <v>33.32332783357781</v>
+        <v>38.07550630683609</v>
       </c>
       <c r="I18">
-        <v>23.29601222469862</v>
+        <v>30.99841024439669</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.81552798288693</v>
+        <v>14.44040404724441</v>
       </c>
       <c r="L18">
-        <v>7.948167290885616</v>
+        <v>10.40202423827971</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.39807984174854</v>
+        <v>22.03403634459954</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.83074385992512</v>
+        <v>16.76715905078289</v>
       </c>
       <c r="C19">
-        <v>9.139709051712551</v>
+        <v>5.425997852852001</v>
       </c>
       <c r="D19">
-        <v>5.075848293842726</v>
+        <v>7.580442648194738</v>
       </c>
       <c r="E19">
-        <v>6.599260577829916</v>
+        <v>9.925829204417903</v>
       </c>
       <c r="F19">
-        <v>33.24160089248282</v>
+        <v>38.06467771530828</v>
       </c>
       <c r="I19">
-        <v>23.26642002072631</v>
+        <v>30.99804291422302</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.7433297263858</v>
+        <v>14.42655476404174</v>
       </c>
       <c r="L19">
-        <v>7.928286201690726</v>
+        <v>10.4002450479126</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.41223657235511</v>
+        <v>22.03808347999323</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.21641353443526</v>
+        <v>16.85382797403922</v>
       </c>
       <c r="C20">
-        <v>9.321953326717031</v>
+        <v>5.514810565374571</v>
       </c>
       <c r="D20">
-        <v>5.054070137646922</v>
+        <v>7.577549102419383</v>
       </c>
       <c r="E20">
-        <v>6.642055512055535</v>
+        <v>9.92536351688803</v>
       </c>
       <c r="F20">
-        <v>33.61015208840693</v>
+        <v>38.11396076154904</v>
       </c>
       <c r="I20">
-        <v>23.4007576842397</v>
+        <v>31.00007373725108</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.06632108045836</v>
+        <v>14.48900785193402</v>
       </c>
       <c r="L20">
-        <v>8.017779783896215</v>
+        <v>10.40837918456504</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.34886136129276</v>
+        <v>22.01999850902014</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.47385256365727</v>
+        <v>17.14657144384786</v>
       </c>
       <c r="C21">
-        <v>9.917268667497421</v>
+        <v>5.802488441879687</v>
       </c>
       <c r="D21">
-        <v>4.98025698363491</v>
+        <v>7.56795071791945</v>
       </c>
       <c r="E21">
-        <v>6.788898824549775</v>
+        <v>9.925534603763335</v>
       </c>
       <c r="F21">
-        <v>34.86166999325867</v>
+        <v>38.28914608769508</v>
       </c>
       <c r="I21">
-        <v>23.87299251607086</v>
+        <v>31.01350635262717</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.11858026836283</v>
+        <v>14.70093063055841</v>
       </c>
       <c r="L21">
-        <v>8.318798284400376</v>
+        <v>10.43792789841692</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.14189718064049</v>
+        <v>21.96146723837939</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.26762291341607</v>
+        <v>17.33872398274546</v>
       </c>
       <c r="C22">
-        <v>10.29404004955531</v>
+        <v>5.98248827064169</v>
       </c>
       <c r="D22">
-        <v>4.931412847446824</v>
+        <v>7.561768626390535</v>
       </c>
       <c r="E22">
-        <v>6.887130789789843</v>
+        <v>9.926936314453968</v>
       </c>
       <c r="F22">
-        <v>35.68926228937444</v>
+        <v>38.41069358841602</v>
       </c>
       <c r="I22">
-        <v>24.1977007164865</v>
+        <v>31.02720724094737</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.78231358649791</v>
+        <v>14.84077092944432</v>
       </c>
       <c r="L22">
-        <v>8.515644800883109</v>
+        <v>10.45887630047193</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.01130220389627</v>
+        <v>21.92487581086601</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.84650071543103</v>
+        <v>17.23611355096818</v>
       </c>
       <c r="C23">
-        <v>10.09405077093866</v>
+        <v>5.887153509513404</v>
       </c>
       <c r="D23">
-        <v>4.957545486086495</v>
+        <v>7.565059865953919</v>
       </c>
       <c r="E23">
-        <v>6.83449648370488</v>
+        <v>9.926070427078212</v>
       </c>
       <c r="F23">
-        <v>35.24668552312105</v>
+        <v>38.34518282887188</v>
       </c>
       <c r="I23">
-        <v>24.02289296394381</v>
+        <v>31.01944481412897</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.43022224477957</v>
+        <v>14.76602736731545</v>
       </c>
       <c r="L23">
-        <v>8.41058095773302</v>
+        <v>10.44754715623623</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.08056066174375</v>
+        <v>21.94425333293485</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.19538001452751</v>
+        <v>16.84906187134834</v>
       </c>
       <c r="C24">
-        <v>9.312010191112245</v>
+        <v>5.509973652048688</v>
       </c>
       <c r="D24">
-        <v>5.055268201494393</v>
+        <v>7.577707534656806</v>
       </c>
       <c r="E24">
-        <v>6.639693857347829</v>
+        <v>9.925382551370701</v>
       </c>
       <c r="F24">
-        <v>33.58986246577189</v>
+        <v>38.11121800503199</v>
       </c>
       <c r="I24">
-        <v>23.39330323353808</v>
+        <v>30.99993734246425</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.0487093055732</v>
+        <v>14.48556980605152</v>
       </c>
       <c r="L24">
-        <v>8.012863577061315</v>
+        <v>10.40792410605782</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.35231968583916</v>
+        <v>22.02098324997936</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.40953760498409</v>
+        <v>16.43723882974686</v>
       </c>
       <c r="C25">
-        <v>8.413328476891312</v>
+        <v>5.068898992790341</v>
       </c>
       <c r="D25">
-        <v>5.158870088608048</v>
+        <v>7.591747772672528</v>
       </c>
       <c r="E25">
-        <v>6.439409189982478</v>
+        <v>9.930201710056441</v>
       </c>
       <c r="F25">
-        <v>31.8459050330401</v>
+        <v>37.88976931403817</v>
       </c>
       <c r="I25">
-        <v>22.7799158962947</v>
+        <v>31.00004669632471</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.45192156864362</v>
+        <v>14.19021587105784</v>
       </c>
       <c r="L25">
-        <v>7.585317184766212</v>
+        <v>10.37231901989365</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.66415784655794</v>
+        <v>22.11089343246514</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_216/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_216/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.14118879991426</v>
+        <v>16.07128983966397</v>
       </c>
       <c r="C2">
-        <v>4.714971814194675</v>
+        <v>7.701859124482622</v>
       </c>
       <c r="D2">
-        <v>7.60243751228304</v>
+        <v>5.234378961725431</v>
       </c>
       <c r="E2">
-        <v>9.938551248749587</v>
+        <v>6.300558212141678</v>
       </c>
       <c r="F2">
-        <v>37.75385985877457</v>
+        <v>30.60187671934467</v>
       </c>
       <c r="I2">
-        <v>31.01830222044006</v>
+        <v>22.38113055601175</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.9804170890811</v>
+        <v>13.18353088803871</v>
       </c>
       <c r="L2">
-        <v>10.35233306271476</v>
+        <v>7.273124113448522</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.18326019142626</v>
+        <v>14.90870819196133</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.94619127431521</v>
+        <v>15.11930119587911</v>
       </c>
       <c r="C3">
-        <v>4.457157147758701</v>
+        <v>7.187625231850614</v>
       </c>
       <c r="D3">
-        <v>7.609906557120055</v>
+        <v>5.285413934867009</v>
       </c>
       <c r="E3">
-        <v>9.947211762593218</v>
+        <v>6.211923104493088</v>
       </c>
       <c r="F3">
-        <v>37.67890564883053</v>
+        <v>29.78583490935496</v>
       </c>
       <c r="I3">
-        <v>31.04199030422711</v>
+        <v>22.14196654612706</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.84376505895688</v>
+        <v>12.44039735976237</v>
       </c>
       <c r="L3">
-        <v>10.34271338168336</v>
+        <v>7.064059136473998</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.23616157705348</v>
+        <v>15.08333305128727</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.82962789282473</v>
+        <v>14.51357827200422</v>
       </c>
       <c r="C4">
-        <v>4.290122461420101</v>
+        <v>6.855781820585112</v>
       </c>
       <c r="D4">
-        <v>7.61460490854741</v>
+        <v>5.316783729013816</v>
       </c>
       <c r="E4">
-        <v>9.954011870861381</v>
+        <v>6.160224729615437</v>
       </c>
       <c r="F4">
-        <v>37.64140246172978</v>
+        <v>29.29892609610657</v>
       </c>
       <c r="I4">
-        <v>31.06210622571427</v>
+        <v>22.00981178274998</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.76283001884183</v>
+        <v>11.96967781969798</v>
       </c>
       <c r="L4">
-        <v>10.33875354970141</v>
+        <v>6.937274929805515</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.27054980033538</v>
+        <v>15.19482655760519</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78298076116336</v>
+        <v>14.26161933380281</v>
       </c>
       <c r="C5">
-        <v>4.219881956196033</v>
+        <v>6.716468097152218</v>
       </c>
       <c r="D5">
-        <v>7.61654798267427</v>
+        <v>5.329589728038212</v>
       </c>
       <c r="E5">
-        <v>9.957156025520746</v>
+        <v>6.139846085828038</v>
       </c>
       <c r="F5">
-        <v>37.62826945504848</v>
+        <v>29.10419173333725</v>
       </c>
       <c r="I5">
-        <v>31.07170291591019</v>
+        <v>21.95955367346625</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73063072870059</v>
+        <v>11.77441819585059</v>
       </c>
       <c r="L5">
-        <v>10.33763088198513</v>
+        <v>6.886063412973731</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.28504317742432</v>
+        <v>15.241321200145</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.77528822334049</v>
+        <v>14.21947956087556</v>
       </c>
       <c r="C6">
-        <v>4.208088178793432</v>
+        <v>6.693087503680863</v>
       </c>
       <c r="D6">
-        <v>7.616872353647246</v>
+        <v>5.331717907965118</v>
       </c>
       <c r="E6">
-        <v>9.957700647828261</v>
+        <v>6.136503924498573</v>
       </c>
       <c r="F6">
-        <v>37.6262187603636</v>
+        <v>29.07208251223229</v>
       </c>
       <c r="I6">
-        <v>31.0733808954544</v>
+        <v>21.95142257010391</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.72533232458965</v>
+        <v>11.74179433539494</v>
       </c>
       <c r="L6">
-        <v>10.33747415637652</v>
+        <v>6.877588890349862</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.28747879053438</v>
+        <v>15.24910525455307</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.82899526354942</v>
+        <v>14.51020068867955</v>
       </c>
       <c r="C7">
-        <v>4.289183933733787</v>
+        <v>6.853919569906303</v>
       </c>
       <c r="D7">
-        <v>7.61463099803536</v>
+        <v>5.316956326062394</v>
       </c>
       <c r="E7">
-        <v>9.954052763247098</v>
+        <v>6.159947102586321</v>
       </c>
       <c r="F7">
-        <v>37.64121663218366</v>
+        <v>29.2962847518076</v>
       </c>
       <c r="I7">
-        <v>31.06222998696264</v>
+        <v>22.00911955777399</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.76239255424169</v>
+        <v>11.96705811305259</v>
       </c>
       <c r="L7">
-        <v>10.3387364192484</v>
+        <v>6.936582358893999</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.2707433194002</v>
+        <v>15.19544932539496</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.07333145965105</v>
+        <v>15.74755252897566</v>
       </c>
       <c r="C8">
-        <v>4.627903070063746</v>
+        <v>7.527869815015871</v>
       </c>
       <c r="D8">
-        <v>7.604989653914703</v>
+        <v>5.25197745152837</v>
       </c>
       <c r="E8">
-        <v>9.941229876895665</v>
+        <v>6.269434114398116</v>
       </c>
       <c r="F8">
-        <v>37.72625270988142</v>
+        <v>30.31764659003012</v>
       </c>
       <c r="I8">
-        <v>31.02531265243648</v>
+        <v>22.29555927469422</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.93270490890878</v>
+        <v>12.93039544479858</v>
       </c>
       <c r="L8">
-        <v>10.34861313697552</v>
+        <v>7.200742852176148</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.20110516954001</v>
+        <v>14.96802254366639</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.57500271281531</v>
+        <v>17.99923652550504</v>
       </c>
       <c r="C9">
-        <v>5.222029863805265</v>
+        <v>8.723635568392869</v>
       </c>
       <c r="D9">
-        <v>7.586964278749349</v>
+        <v>5.124140647922968</v>
       </c>
       <c r="E9">
-        <v>9.92783364937438</v>
+        <v>6.505548537419324</v>
       </c>
       <c r="F9">
-        <v>37.96018208884473</v>
+        <v>32.42737922878096</v>
       </c>
       <c r="I9">
-        <v>30.99718470839059</v>
+        <v>22.97808214452709</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.28861576209488</v>
+        <v>15.00440193284813</v>
       </c>
       <c r="L9">
-        <v>10.38335069873541</v>
+        <v>7.729036156414082</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.07965062623</v>
+        <v>14.55672639765524</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.95377678489797</v>
+        <v>19.65309476671734</v>
       </c>
       <c r="C10">
-        <v>5.615050713781351</v>
+        <v>9.528491691346854</v>
       </c>
       <c r="D10">
-        <v>7.57424382141223</v>
+        <v>5.028926113644683</v>
       </c>
       <c r="E10">
-        <v>9.925132632703599</v>
+        <v>6.691799179318631</v>
       </c>
       <c r="F10">
-        <v>38.17231739666779</v>
+        <v>34.0362564923071</v>
       </c>
       <c r="I10">
-        <v>31.00356771817148</v>
+        <v>23.55884199014283</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.56119984134638</v>
+        <v>16.43187999718422</v>
       </c>
       <c r="L10">
-        <v>10.41812218228075</v>
+        <v>8.120749867441162</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.99959563387434</v>
+        <v>14.27702274725293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.12754711216996</v>
+        <v>20.3940184756929</v>
       </c>
       <c r="C11">
-        <v>5.784314008354198</v>
+        <v>9.879418016655002</v>
       </c>
       <c r="D11">
-        <v>7.568567353478108</v>
+        <v>4.985072422871755</v>
       </c>
       <c r="E11">
-        <v>9.925448254422937</v>
+        <v>6.77925147875346</v>
       </c>
       <c r="F11">
-        <v>38.27738100427604</v>
+        <v>34.78000773053409</v>
       </c>
       <c r="I11">
-        <v>31.012348960417</v>
+        <v>23.84146630914598</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.68711586200622</v>
+        <v>17.05180526418609</v>
       </c>
       <c r="L11">
-        <v>10.43591742168709</v>
+        <v>8.29928364825607</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.96516308156763</v>
+        <v>14.15504097863087</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19349710297033</v>
+        <v>20.66976994161773</v>
       </c>
       <c r="C12">
-        <v>5.84703557384842</v>
+        <v>10.0101892693423</v>
       </c>
       <c r="D12">
-        <v>7.566433428164983</v>
+        <v>4.968364715975892</v>
       </c>
       <c r="E12">
-        <v>9.92578913929867</v>
+        <v>6.812755832773965</v>
       </c>
       <c r="F12">
-        <v>38.31837823184227</v>
+        <v>35.06330621120077</v>
       </c>
       <c r="I12">
-        <v>31.01651875540763</v>
+        <v>23.95123941578639</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.73503021523607</v>
+        <v>17.28243385971656</v>
       </c>
       <c r="L12">
-        <v>10.44293717139402</v>
+        <v>8.366911240417913</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.95240939979721</v>
+        <v>14.10964582627715</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.17928805913396</v>
+        <v>20.61059452678937</v>
       </c>
       <c r="C13">
-        <v>5.833588567973509</v>
+        <v>9.982118305567848</v>
       </c>
       <c r="D13">
-        <v>7.566892315299611</v>
+        <v>4.971967924725876</v>
       </c>
       <c r="E13">
-        <v>9.925705890583968</v>
+        <v>6.805522856646588</v>
       </c>
       <c r="F13">
-        <v>38.30949517181374</v>
+        <v>35.00221961872502</v>
       </c>
       <c r="I13">
-        <v>31.01558317066632</v>
+        <v>23.92747390926962</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.72470133460022</v>
+        <v>17.23294542927107</v>
       </c>
       <c r="L13">
-        <v>10.44141289712686</v>
+        <v>8.352345871463012</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.95514345359141</v>
+        <v>14.11938632438107</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.13297027344441</v>
+        <v>20.41680068159125</v>
       </c>
       <c r="C14">
-        <v>5.789501724624603</v>
+        <v>9.890218648281424</v>
       </c>
       <c r="D14">
-        <v>7.568391482094808</v>
+        <v>4.983700042931675</v>
       </c>
       <c r="E14">
-        <v>9.925471867104793</v>
+        <v>6.782000141526392</v>
       </c>
       <c r="F14">
-        <v>38.28072969931275</v>
+        <v>34.80328185148592</v>
       </c>
       <c r="I14">
-        <v>31.01267509192085</v>
+        <v>23.85044172426899</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.69105338647529</v>
+        <v>17.07086120346042</v>
       </c>
       <c r="L14">
-        <v>10.43648932736199</v>
+        <v>8.304847129151046</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.96410811440585</v>
+        <v>14.15129006583998</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.1046165574535</v>
+        <v>20.2974719044443</v>
       </c>
       <c r="C15">
-        <v>5.762318103348442</v>
+        <v>9.833653956985001</v>
       </c>
       <c r="D15">
-        <v>7.569311794389817</v>
+        <v>4.99087237560189</v>
       </c>
       <c r="E15">
-        <v>9.925357326765633</v>
+        <v>6.767642247184689</v>
       </c>
       <c r="F15">
-        <v>38.26326724006599</v>
+        <v>34.6816414416997</v>
       </c>
       <c r="I15">
-        <v>31.01100376411549</v>
+        <v>23.80361834912224</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.67047207875387</v>
+        <v>16.97104631261634</v>
       </c>
       <c r="L15">
-        <v>10.43351000086101</v>
+        <v>8.275754773481161</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.96963635982558</v>
+        <v>14.17093711509726</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.94244448914634</v>
+        <v>19.60399321310048</v>
       </c>
       <c r="C16">
-        <v>5.603796818454475</v>
+        <v>9.505257641079778</v>
       </c>
       <c r="D16">
-        <v>7.574616990365722</v>
+        <v>5.031779222663761</v>
       </c>
       <c r="E16">
-        <v>9.925143023620702</v>
+        <v>6.6861384497673</v>
       </c>
       <c r="F16">
-        <v>38.16562192713826</v>
+        <v>33.98788435890559</v>
       </c>
       <c r="I16">
-        <v>31.00311207041865</v>
+        <v>23.5407510957131</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.55300582779628</v>
+        <v>16.39078321250008</v>
       </c>
       <c r="L16">
-        <v>10.4169987401903</v>
+        <v>8.109086526178574</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.0018858014637</v>
+        <v>14.28510364823481</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.84328663980047</v>
+        <v>19.16986644493791</v>
       </c>
       <c r="C17">
-        <v>5.504105443785968</v>
+        <v>9.299949832465609</v>
       </c>
       <c r="D17">
-        <v>7.577899616179802</v>
+        <v>5.05671984407494</v>
       </c>
       <c r="E17">
-        <v>9.925406621661715</v>
+        <v>6.636833449109433</v>
       </c>
       <c r="F17">
-        <v>38.10789951980733</v>
+        <v>33.56528042598337</v>
       </c>
       <c r="I17">
-        <v>30.99977585215267</v>
+        <v>23.38428079976919</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.48140437743189</v>
+        <v>16.02734578475558</v>
       </c>
       <c r="L17">
-        <v>10.40737386360274</v>
+        <v>8.006905677344482</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.02217798145908</v>
+        <v>14.35651434024513</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.78639523560432</v>
+        <v>18.91693853278288</v>
       </c>
       <c r="C18">
-        <v>5.445869337558499</v>
+        <v>9.180426300391552</v>
       </c>
       <c r="D18">
-        <v>7.579798074119591</v>
+        <v>5.07101573552506</v>
       </c>
       <c r="E18">
-        <v>9.925703643892476</v>
+        <v>6.608731258093129</v>
       </c>
       <c r="F18">
-        <v>38.07550630683609</v>
+        <v>33.32332783357769</v>
       </c>
       <c r="I18">
-        <v>30.99841024439669</v>
+        <v>23.29601222469848</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.44040404724441</v>
+        <v>15.81552798288701</v>
       </c>
       <c r="L18">
-        <v>10.40202423827971</v>
+        <v>7.948167290885623</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.03403634459954</v>
+        <v>14.3980798417484</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76715905078289</v>
+        <v>18.83074385992516</v>
       </c>
       <c r="C19">
-        <v>5.425997852852001</v>
+        <v>9.139709051712632</v>
       </c>
       <c r="D19">
-        <v>7.580442648194738</v>
+        <v>5.075848293842725</v>
       </c>
       <c r="E19">
-        <v>9.925829204417903</v>
+        <v>6.599260577829845</v>
       </c>
       <c r="F19">
-        <v>38.06467771530828</v>
+        <v>33.24160089248272</v>
       </c>
       <c r="I19">
-        <v>30.99804291422302</v>
+        <v>23.26642002072624</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.42655476404174</v>
+        <v>15.74332972638585</v>
       </c>
       <c r="L19">
-        <v>10.4002450479126</v>
+        <v>7.928286201690667</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.03808347999323</v>
+        <v>14.41223657235503</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.85382797403922</v>
+        <v>19.21641353443522</v>
       </c>
       <c r="C20">
-        <v>5.514810565374571</v>
+        <v>9.32195332671701</v>
       </c>
       <c r="D20">
-        <v>7.577549102419383</v>
+        <v>5.054070137647121</v>
       </c>
       <c r="E20">
-        <v>9.92536351688803</v>
+        <v>6.642055512055575</v>
       </c>
       <c r="F20">
-        <v>38.11396076154904</v>
+        <v>33.61015208840697</v>
       </c>
       <c r="I20">
-        <v>31.00007373725108</v>
+        <v>23.4007576842398</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.48900785193402</v>
+        <v>16.06632108045833</v>
       </c>
       <c r="L20">
-        <v>10.40837918456504</v>
+        <v>8.017779783896211</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.01999850902014</v>
+        <v>14.34886136129282</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.14657144384786</v>
+        <v>20.47385256365733</v>
       </c>
       <c r="C21">
-        <v>5.802488441879687</v>
+        <v>9.917268667497421</v>
       </c>
       <c r="D21">
-        <v>7.56795071791945</v>
+        <v>4.980256983634708</v>
       </c>
       <c r="E21">
-        <v>9.925534603763335</v>
+        <v>6.788898824549743</v>
       </c>
       <c r="F21">
-        <v>38.28914608769508</v>
+        <v>34.86166999325881</v>
       </c>
       <c r="I21">
-        <v>31.01350635262717</v>
+        <v>23.87299251607089</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.70093063055841</v>
+        <v>17.11858026836287</v>
       </c>
       <c r="L21">
-        <v>10.43792789841692</v>
+        <v>8.31879828440036</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.96146723837939</v>
+        <v>14.14189718064049</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33872398274546</v>
+        <v>21.26762291341614</v>
       </c>
       <c r="C22">
-        <v>5.98248827064169</v>
+        <v>10.29404004955524</v>
       </c>
       <c r="D22">
-        <v>7.561768626390535</v>
+        <v>4.931412847446888</v>
       </c>
       <c r="E22">
-        <v>9.926936314453968</v>
+        <v>6.887130789789836</v>
       </c>
       <c r="F22">
-        <v>38.41069358841602</v>
+        <v>35.6892622893744</v>
       </c>
       <c r="I22">
-        <v>31.02720724094737</v>
+        <v>24.19770071648645</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.84077092944432</v>
+        <v>17.78231358649792</v>
       </c>
       <c r="L22">
-        <v>10.45887630047193</v>
+        <v>8.515644800883125</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.92487581086601</v>
+        <v>14.01130220389627</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.23611355096818</v>
+        <v>20.84650071543106</v>
       </c>
       <c r="C23">
-        <v>5.887153509513404</v>
+        <v>10.09405077093874</v>
       </c>
       <c r="D23">
-        <v>7.565059865953919</v>
+        <v>4.957545486086494</v>
       </c>
       <c r="E23">
-        <v>9.926070427078212</v>
+        <v>6.834496483704879</v>
       </c>
       <c r="F23">
-        <v>38.34518282887188</v>
+        <v>35.2466855231211</v>
       </c>
       <c r="I23">
-        <v>31.01944481412897</v>
+        <v>24.02289296394386</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.76602736731545</v>
+        <v>17.4302222447796</v>
       </c>
       <c r="L23">
-        <v>10.44754715623623</v>
+        <v>8.41058095773302</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.94425333293485</v>
+        <v>14.08056066174376</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.84906187134834</v>
+        <v>19.19538001452745</v>
       </c>
       <c r="C24">
-        <v>5.509973652048688</v>
+        <v>9.312010191112336</v>
       </c>
       <c r="D24">
-        <v>7.577707534656806</v>
+        <v>5.055268201494528</v>
       </c>
       <c r="E24">
-        <v>9.925382551370701</v>
+        <v>6.639693857347822</v>
       </c>
       <c r="F24">
-        <v>38.11121800503199</v>
+        <v>33.58986246577197</v>
       </c>
       <c r="I24">
-        <v>30.99993734246425</v>
+        <v>23.39330323353817</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.48556980605152</v>
+        <v>16.04870930557316</v>
       </c>
       <c r="L24">
-        <v>10.40792410605782</v>
+        <v>8.012863577061344</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.02098324997936</v>
+        <v>14.35231968583919</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.43723882974686</v>
+        <v>17.4095376049841</v>
       </c>
       <c r="C25">
-        <v>5.068898992790341</v>
+        <v>8.413328476891149</v>
       </c>
       <c r="D25">
-        <v>7.591747772672528</v>
+        <v>5.158870088608317</v>
       </c>
       <c r="E25">
-        <v>9.930201710056441</v>
+        <v>6.439409189982441</v>
       </c>
       <c r="F25">
-        <v>37.88976931403817</v>
+        <v>31.8459050330403</v>
       </c>
       <c r="I25">
-        <v>31.00004669632471</v>
+        <v>22.77991589629483</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.19021587105784</v>
+        <v>14.45192156864355</v>
       </c>
       <c r="L25">
-        <v>10.37231901989365</v>
+        <v>7.585317184766232</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.11089343246514</v>
+        <v>14.66415784655802</v>
       </c>
       <c r="O25">
         <v>0</v>
